--- a/implementation/dataset.xlsx
+++ b/implementation/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarao\Documents\Sara\Universidad\Automatizacion II\Proyecto\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarao\Documents\GitHub\Poligrafo\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6113F130-1316-49F1-9FE0-EF12A8AED128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867DF326-33FD-4F2F-8284-B615FF1BA0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="16">
   <si>
     <t>Genero</t>
   </si>
@@ -90,6 +90,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -219,6 +222,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection sqref="A1:I296"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8217,7 +8223,7 @@
         <v>0.37969999999999998</v>
       </c>
       <c r="H259" s="2" t="str">
-        <f t="shared" ref="H259:H296" si="4">"audios/" &amp; (ROW()-1) &amp; ".wav"</f>
+        <f t="shared" ref="H259:H322" si="4">"audios/" &amp; (ROW()-1) &amp; ".wav"</f>
         <v>audios/258.wav</v>
       </c>
       <c r="I259" s="13">
@@ -9334,78 +9340,1818 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B297" s="13">
+        <v>23</v>
+      </c>
+      <c r="C297" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D297" s="13">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E297" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F297" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G297" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H297" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/296.wav</v>
+      </c>
+      <c r="I297" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B298" s="13">
+        <v>23</v>
+      </c>
+      <c r="C298" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D298" s="13">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E298" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F298" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G298" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H298" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/297.wav</v>
+      </c>
+      <c r="I298" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B299" s="13">
+        <v>23</v>
+      </c>
+      <c r="C299" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D299" s="13">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E299" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F299" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G299" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H299" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/298.wav</v>
+      </c>
+      <c r="I299" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B300" s="13">
+        <v>23</v>
+      </c>
+      <c r="C300" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" s="13">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E300" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F300" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G300" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H300" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/299.wav</v>
+      </c>
+      <c r="I300" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B301" s="13">
+        <v>23</v>
+      </c>
+      <c r="C301" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D301" s="13">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E301" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F301" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G301" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H301" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/300.wav</v>
+      </c>
+      <c r="I301" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302" s="13">
+        <v>23</v>
+      </c>
+      <c r="C302" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D302" s="13">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E302" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F302" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G302" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H302" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/301.wav</v>
+      </c>
+      <c r="I302" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" s="13">
+        <v>23</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D303" s="13">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E303" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F303" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G303" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H303" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/302.wav</v>
+      </c>
+      <c r="I303" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" s="13">
+        <v>23</v>
+      </c>
+      <c r="C304" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D304" s="13">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E304" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F304" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G304" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H304" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/303.wav</v>
+      </c>
+      <c r="I304" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" s="13">
+        <v>23</v>
+      </c>
+      <c r="C305" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" s="13">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E305" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F305" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G305" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H305" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/304.wav</v>
+      </c>
+      <c r="I305" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B306" s="13">
+        <v>23</v>
+      </c>
+      <c r="C306" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E306" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F306" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G306" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H306" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/305.wav</v>
+      </c>
+      <c r="I306" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B307" s="13">
+        <v>23</v>
+      </c>
+      <c r="C307" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D307" s="13">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E307" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F307" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G307" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H307" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/306.wav</v>
+      </c>
+      <c r="I307" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308" s="13">
+        <v>23</v>
+      </c>
+      <c r="C308" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D308" s="13">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="E308" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F308" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G308" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H308" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/307.wav</v>
+      </c>
+      <c r="I308" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B309" s="13">
+        <v>23</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D309" s="22">
+        <v>1.181</v>
+      </c>
+      <c r="E309" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F309" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G309" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H309" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/308.wav</v>
+      </c>
+      <c r="I309" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" s="13">
+        <v>23</v>
+      </c>
+      <c r="C310" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310" s="13">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E310" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F310" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G310" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H310" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/309.wav</v>
+      </c>
+      <c r="I310" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="13">
+        <v>23</v>
+      </c>
+      <c r="C311" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" s="22">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="E311" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F311" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G311" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H311" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/310.wav</v>
+      </c>
+      <c r="I311" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B312" s="13">
+        <v>23</v>
+      </c>
+      <c r="C312" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" s="13">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E312" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F312" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G312" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H312" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/311.wav</v>
+      </c>
+      <c r="I312" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B313" s="13">
+        <v>23</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D313" s="13">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E313" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F313" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G313" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H313" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/312.wav</v>
+      </c>
+      <c r="I313" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B314" s="13">
+        <v>23</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D314" s="22">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="E314" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F314" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G314" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H314" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/313.wav</v>
+      </c>
+      <c r="I314" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B315" s="13">
+        <v>23</v>
+      </c>
+      <c r="C315" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" s="13">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E315" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F315" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G315" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H315" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/314.wav</v>
+      </c>
+      <c r="I315" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B316" s="13">
+        <v>23</v>
+      </c>
+      <c r="C316" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" s="13">
+        <v>0.441</v>
+      </c>
+      <c r="E316" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F316" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G316" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H316" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/315.wav</v>
+      </c>
+      <c r="I316" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B317" s="13">
+        <v>23</v>
+      </c>
+      <c r="C317" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" s="22">
+        <v>1.052</v>
+      </c>
+      <c r="E317" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F317" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G317" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H317" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/316.wav</v>
+      </c>
+      <c r="I317" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B318" s="13">
+        <v>23</v>
+      </c>
+      <c r="C318" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="13">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E318" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F318" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G318" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H318" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/317.wav</v>
+      </c>
+      <c r="I318" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B319" s="13">
+        <v>23</v>
+      </c>
+      <c r="C319" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="13">
+        <v>0.373</v>
+      </c>
+      <c r="E319" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F319" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G319" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H319" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/318.wav</v>
+      </c>
+      <c r="I319" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B320" s="13">
+        <v>23</v>
+      </c>
+      <c r="C320" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D320" s="13">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E320" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F320" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G320" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H320" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/319.wav</v>
+      </c>
+      <c r="I320" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B321" s="13">
+        <v>23</v>
+      </c>
+      <c r="C321" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D321" s="13">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E321" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F321" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G321" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H321" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/320.wav</v>
+      </c>
+      <c r="I321" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B322" s="13">
+        <v>23</v>
+      </c>
+      <c r="C322" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" s="13">
+        <v>1.02</v>
+      </c>
+      <c r="E322" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F322" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G322" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H322" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>audios/321.wav</v>
+      </c>
+      <c r="I322" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B323" s="13">
+        <v>23</v>
+      </c>
+      <c r="C323" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323" s="13">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="E323" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F323" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G323" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H323" s="2" t="str">
+        <f t="shared" ref="H323:H356" si="5">"audios/" &amp; (ROW()-1) &amp; ".wav"</f>
+        <v>audios/322.wav</v>
+      </c>
+      <c r="I323" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B324" s="13">
+        <v>23</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324" s="13">
+        <v>0.501</v>
+      </c>
+      <c r="E324" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F324" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G324" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H324" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/323.wav</v>
+      </c>
+      <c r="I324" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B325" s="13">
+        <v>23</v>
+      </c>
+      <c r="C325" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="E325" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F325" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G325" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H325" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/324.wav</v>
+      </c>
+      <c r="I325" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B326" s="13">
+        <v>23</v>
+      </c>
+      <c r="C326" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D326" s="22">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="E326" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F326" s="22">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="G326" s="13">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="H326" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/325.wav</v>
+      </c>
+      <c r="I326" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B327">
+        <v>24</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D327">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E327">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F327" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G327">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H327" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/326.wav</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B328">
+        <v>24</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D328">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E328">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F328" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G328">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H328" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/327.wav</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B329">
+        <v>24</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E329">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F329" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G329">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H329" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/328.wav</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B330">
+        <v>24</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E330">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F330" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G330">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H330" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/329.wav</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B331">
+        <v>24</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D331">
+        <v>0.312</v>
+      </c>
+      <c r="E331">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F331" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G331">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H331" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/330.wav</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B332">
+        <v>24</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D332">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E332">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F332" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G332">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H332" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/331.wav</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B333">
+        <v>24</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D333">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E333">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F333" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G333">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H333" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/332.wav</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B334">
+        <v>24</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D334" s="21">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="E334">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F334" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G334">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H334" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/333.wav</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B335">
+        <v>24</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D335">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E335">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F335" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G335">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H335" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/334.wav</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B336">
+        <v>24</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E336">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F336" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G336">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H336" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/335.wav</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B337">
+        <v>24</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D337">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E337">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F337" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G337">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H337" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/336.wav</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B338">
+        <v>24</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D338">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E338">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F338" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G338">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H338" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/337.wav</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B339">
+        <v>24</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D339">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E339">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F339" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G339">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H339" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/338.wav</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B340">
+        <v>24</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D340">
+        <v>0.749</v>
+      </c>
+      <c r="E340">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F340" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G340">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H340" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/339.wav</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B341">
+        <v>24</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="E341">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F341" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G341">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H341" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/340.wav</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B342">
+        <v>24</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="E342">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F342" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G342">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H342" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/341.wav</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B343">
+        <v>24</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D343">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E343">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F343" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G343">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H343" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/342.wav</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B344">
+        <v>24</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D344">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="E344">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F344" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G344">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H344" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/343.wav</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345">
+        <v>24</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D345">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E345">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F345" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G345">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H345" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/344.wav</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B346">
+        <v>24</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E346">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F346" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G346">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H346" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/345.wav</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B347">
+        <v>24</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E347">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F347" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G347">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H347" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/346.wav</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B348">
+        <v>24</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E348">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F348" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G348">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H348" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/347.wav</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B349">
+        <v>24</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E349">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F349" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G349">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H349" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/348.wav</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B350">
+        <v>24</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D350" s="21">
+        <v>1.139</v>
+      </c>
+      <c r="E350">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F350" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G350">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H350" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/349.wav</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B351">
+        <v>24</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D351">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E351">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F351" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G351">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H351" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/350.wav</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B352">
+        <v>24</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E352">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F352" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G352">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H352" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/351.wav</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353">
+        <v>24</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D353">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E353">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F353" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G353">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H353" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/352.wav</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B354">
+        <v>24</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D354" s="21">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="E354">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F354" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G354">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H354" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/353.wav</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B355">
+        <v>24</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="E355">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F355" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G355">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H355" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/354.wav</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B356">
+        <v>24</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D356">
+        <v>0.91</v>
+      </c>
+      <c r="E356">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F356" s="21">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G356">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="H356" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>audios/355.wav</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
